--- a/data/trans_camb/P1803_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1803_2016_2023-Dificultad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8481341236181626</v>
+        <v>0.9032695938522317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.457983018190823</v>
+        <v>1.738714290921864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.050647846299007</v>
+        <v>1.997956811073332</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.720283325330422</v>
+        <v>6.469221082742894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.866819166225535</v>
+        <v>5.912045634739223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.558046927609285</v>
+        <v>5.567525049620862</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1174968503375667</v>
+        <v>0.1738910976209767</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.232294745334498</v>
+        <v>0.322432418421328</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4170601576032953</v>
+        <v>0.426913391568676</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.009790943880065</v>
+        <v>1.875121142705289</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.498550692949947</v>
+        <v>1.555555827209083</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.47734836867099</v>
+        <v>1.442123979470933</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>1.302117060930819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9999278942356659</v>
+        <v>0.9999278942356651</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.202418677006774</v>
+        <v>-1.315249605614341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7507208078545595</v>
+        <v>-0.8538867984920552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4266059024025833</v>
+        <v>-0.4945089124781122</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.40386395722073</v>
+        <v>2.623933561025437</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.183855783730648</v>
+        <v>3.345136681373293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.435033684833112</v>
+        <v>2.519510451481738</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.2148535424135563</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1990988425610469</v>
+        <v>0.1990988425610467</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2725351371717819</v>
+        <v>-0.2715719082688324</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1144120663978415</v>
+        <v>-0.1171307358559157</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07261034343810752</v>
+        <v>-0.08880566226874967</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8249766711718834</v>
+        <v>0.8711332386386677</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6614750943863422</v>
+        <v>0.6682108146225829</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5922448779580052</v>
+        <v>0.5973137073233534</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.197180763439073</v>
+        <v>4.197180763439072</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.086282805834794</v>
+        <v>5.086282805834796</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.648783589435009</v>
+        <v>4.648783589435012</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.264870384198668</v>
+        <v>1.942354138516413</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.544445638490517</v>
+        <v>2.419393917643276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.118664403115617</v>
+        <v>2.929450787083604</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.433505085350948</v>
+        <v>6.779590985423253</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.33340916679299</v>
+        <v>7.317937014565799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.38618730911171</v>
+        <v>6.468003701726387</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.8403074057863099</v>
+        <v>0.8403074057863096</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.9419253085895715</v>
+        <v>0.9419253085895718</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8956063768717312</v>
+        <v>0.8956063768717316</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.174114266711277</v>
+        <v>0.2470695666973702</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.369810957175279</v>
+        <v>0.3396755564692106</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4946577260573594</v>
+        <v>0.4857930207128215</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.584026547504691</v>
+        <v>1.704939547681162</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.744855637102104</v>
+        <v>1.834412333903285</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.479774174076</v>
+        <v>1.538690160778293</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>6.459924433205202</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.031326156550943</v>
+        <v>5.03132615655094</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5114694724720911</v>
+        <v>0.1269412474637199</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.577979186375326</v>
+        <v>3.083743459631556</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.465178499625337</v>
+        <v>2.553915452064779</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.974751716061042</v>
+        <v>6.666985826500974</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.490130425631191</v>
+        <v>9.508682980407073</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.15877269266657</v>
+        <v>7.132355718926984</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.9372845474198768</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7425915531936464</v>
+        <v>0.742591553193646</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04978735327355589</v>
+        <v>-0.006004897138634749</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3728309561277042</v>
+        <v>0.3339430330397813</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3011320125431394</v>
+        <v>0.3034899769368173</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.3624279699448</v>
+        <v>1.308648373578757</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.870288844271918</v>
+        <v>1.807682841967789</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.306447889295453</v>
+        <v>1.26959472603017</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>3.373436529617956</v>
+        <v>3.373436529617958</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>4.387496292723942</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.898650894498908</v>
+        <v>3.89865089449891</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.174470254527711</v>
+        <v>1.992575760934171</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.178941901102961</v>
+        <v>3.283603992643204</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.103375390544718</v>
+        <v>3.01579337460793</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.677598702222452</v>
+        <v>4.538054689219551</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.541585943108688</v>
+        <v>5.508434909313496</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.797447599413744</v>
+        <v>4.681048071014309</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.7304792589458494</v>
+        <v>0.7304792589458501</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.7949859991707409</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7676082900305774</v>
+        <v>0.767608290030578</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4217246837680262</v>
+        <v>0.3867922817971932</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5345136430343781</v>
+        <v>0.527582633683517</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5700767244784561</v>
+        <v>0.5532377971075483</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.16066670714033</v>
+        <v>1.102955817020781</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.128587549923991</v>
+        <v>1.109782556855476</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.029179969751725</v>
+        <v>1.010754597551393</v>
       </c>
     </row>
     <row r="34">
